--- a/product.docs/谋者客户端用户故事.xlsx
+++ b/product.docs/谋者客户端用户故事.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>用户故事</t>
   </si>
@@ -22,59 +22,55 @@
     <t>微信端</t>
   </si>
   <si>
-    <t>1. 当用户关注“谋者”的时候，谋者推荐1～2篇文章。</t>
-  </si>
-  <si>
-    <t>2. 当用户关注“谋者”的时候，谋者推荐1～2个用户。</t>
-  </si>
-  <si>
-    <t>3. 当用户关注“谋者”的时候，谋者提示进行信息绑定。</t>
-  </si>
-  <si>
-    <t>4. 当用户绑定信息以后，谋者开始计算得出“谋略值”。</t>
-  </si>
-  <si>
-    <t>5. 当用户阅读完文章以后，通过发表“评论，扩散，点赞”
-可以“抢红包”。</t>
-  </si>
-  <si>
-    <t>6. 当用户增加和更新自己信息以后，谋略值随之变化。</t>
-  </si>
-  <si>
-    <t>7. 当用户绑定信息和阅读文章以后，增加自己的标签。</t>
+    <t>1. 当用户关注“谋者”的时候，谋者提示进行信息绑定，并推荐1～3篇文章。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 当用户绑定信息以后，谋者开始计算得出简要的“谋略值”；
+若用户没有进行信息绑定直接发表“评论、点赞、扩散”，则系统自动设置一个该用户的谋略值的默认值，以方便进行红包阀值等计算 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. 当用户阅读完文章以后，发表“评论，扩散，点赞”后有三种情况，若未达到红包阀值，则弹出提示框（比如，“已完成65%”等）；
+        若达到红包阀值，直接弹出“抢红包”窗口开始抢红包；
+        若已抢完红包，则是另外一种产品场景，产品经理可根据具体情况具体设计（技术这边可以暂时不弹出提示框或者弹出描述性提示框） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. 当用户增加或更新自己信息以后，谋略值随之变化。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 当用户绑定信息和阅读文章以后，增加用户自己的标签和相应的权重。 </t>
   </si>
   <si>
     <t>安卓端</t>
   </si>
   <si>
-    <t>1. 当用户注册“谋者”的时候，谋者推荐1～2篇文章。</t>
-  </si>
-  <si>
-    <t>2. 当用户注册“谋者”的时候，谋者推荐1～2个用户。</t>
-  </si>
-  <si>
-    <t>3. 当用户注册“谋者”的时候，用户添加自己的信息。
-（手机号，姓名，性别，初始标签，用户分类）</t>
-  </si>
-  <si>
-    <t>4. 当用户登录“谋者”的时候，谋者推荐1～2篇文章。</t>
+    <t xml:space="preserve">1. 当用户注册“谋者”的时候，谋者通过滚动条向该用户展示其他用户的收益；
+        （按照匹配原则，展示的用户跟该用户关系越近且收益越大越好）  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 当用户注册“谋者”的时候，通过引导图让用户自己为自己添加信息，也允许用户暂不添加信息。
+        （手机号，姓名，性别，初始标签，用户分类）" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 当用户登录“谋者”的时候，谋者推荐1～5篇文章。 </t>
   </si>
   <si>
     <t>5. 当用户登录“谋者”的时候，谋者推荐1～2个用户。</t>
   </si>
   <si>
-    <t>6. 当用户维护自己的信息以后，谋者开始计算得出“谋略值”。</t>
-  </si>
-  <si>
-    <t>7. 当用户阅读完文章以后，通过发表“评论，扩散，点赞”
-可以“抢红包”。</t>
-  </si>
-  <si>
-    <t>8. 当用户更新和阅读完文章以后，用户的标签可以增加和减少，
-用户标签的权重可以变化。</t>
-  </si>
-  <si>
-    <t>9. 当用户的信息创建和更新以后，谋者的“谋略值”随之变化。</t>
+    <t>6. 当用户维护自己的信息以后，谋者开始计算得出“谋略值”。 
+        若用户没有进行信息绑定直接发表“评论、点赞、扩散”，则系统自动设置一个该用户的谋略值的默认值，以方便进行红包阀值等计算</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. 当用户阅读完文章以后，发表“评论，扩散，点赞”后有三种情况，若未达到红包阀值，则弹出提示框（比如，“已完成65%”等）；
+        若达到红包阀值，直接弹出“抢红包”窗口开始抢红包；
+        若已抢完红包，则是另外一种产品场景，产品经理可根据具体情况具体设计（技术这边可以暂时不弹出提示框或者弹出描述性提示框）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. 当用户更新和阅读完文章以后，用户的标签可以增加和减少，
+        用户标签的权重可以随之变化。" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. 当用户的信息创建和更新以后，谋者的“谋略值”随之变化。 </t>
   </si>
   <si>
     <t>10. 当用户的标签变化以后，谋者的“谋略值”随之变化。</t>
@@ -85,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -127,24 +123,27 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,11 +459,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -490,13 +489,16 @@
   <sheetPr/>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="58.875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="68.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -509,94 +511,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
+    <row r="4" ht="25.5" spans="3:3">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
+    <row r="7" ht="38.25" spans="3:3">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+    <row r="8" ht="63.75" spans="3:3">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="25.5" spans="3:3">
-      <c r="C8" s="1" t="s">
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25" spans="3:3">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="25.5" spans="3:3">
-      <c r="C15" s="1" t="s">
+    <row r="18" ht="38.25" spans="3:3">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+    <row r="19" ht="63.75" spans="3:3">
+      <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+    <row r="20" ht="25.5" spans="3:3">
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="25.5" spans="3:3">
-      <c r="C19" s="1" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" ht="25.5" spans="3:3">
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/product.docs/谋者客户端用户故事.xlsx
+++ b/product.docs/谋者客户端用户故事.xlsx
@@ -81,8 +81,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -123,25 +123,22 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -489,8 +486,8 @@
   <sheetPr/>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -511,7 +508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="3:3">
+    <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -522,7 +519,7 @@
       </c>
     </row>
     <row r="8" ht="63.75" spans="3:3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -547,7 +544,7 @@
       </c>
     </row>
     <row r="15" ht="38.25" spans="3:3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -567,12 +564,12 @@
       </c>
     </row>
     <row r="19" ht="63.75" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" ht="25.5" spans="3:3">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
